--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H2">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I2">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J2">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N2">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O2">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P2">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q2">
-        <v>1.675302498492</v>
+        <v>3.390627554169</v>
       </c>
       <c r="R2">
-        <v>6.701209993968</v>
+        <v>13.562510216676</v>
       </c>
       <c r="S2">
-        <v>0.00682310806642382</v>
+        <v>0.01700147332641285</v>
       </c>
       <c r="T2">
-        <v>0.004012913597946128</v>
+        <v>0.01094295758232443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H3">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I3">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J3">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.963642</v>
       </c>
       <c r="O3">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P3">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q3">
-        <v>60.24068840259866</v>
+        <v>72.887774105972</v>
       </c>
       <c r="R3">
-        <v>361.444130415592</v>
+        <v>437.326644635832</v>
       </c>
       <c r="S3">
-        <v>0.2453459762261899</v>
+        <v>0.3654779321782514</v>
       </c>
       <c r="T3">
-        <v>0.2164450997876712</v>
+        <v>0.3528584934067672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H4">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I4">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J4">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N4">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O4">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P4">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q4">
-        <v>26.743292216921</v>
+        <v>30.580192527945</v>
       </c>
       <c r="R4">
-        <v>106.973168867684</v>
+        <v>122.32077011178</v>
       </c>
       <c r="S4">
-        <v>0.1089190596995187</v>
+        <v>0.1533369027633734</v>
       </c>
       <c r="T4">
-        <v>0.06405918995986122</v>
+        <v>0.09869493017042157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H5">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I5">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J5">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N5">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O5">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P5">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q5">
-        <v>3.153270557005333</v>
+        <v>0.064002149328</v>
       </c>
       <c r="R5">
-        <v>18.919623342032</v>
+        <v>0.384012895968</v>
       </c>
       <c r="S5">
-        <v>0.01284251995832773</v>
+        <v>0.0003209231380471605</v>
       </c>
       <c r="T5">
-        <v>0.01132971714744054</v>
+        <v>0.0003098421136285275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>15.23399</v>
       </c>
       <c r="I6">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J6">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N6">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O6">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P6">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q6">
-        <v>0.98682740422</v>
+        <v>1.650681525448333</v>
       </c>
       <c r="R6">
-        <v>5.920964425319999</v>
+        <v>9.90408915269</v>
       </c>
       <c r="S6">
-        <v>0.004019112982856758</v>
+        <v>0.008276939143848389</v>
       </c>
       <c r="T6">
-        <v>0.003545675881924224</v>
+        <v>0.007991148080846113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>15.23399</v>
       </c>
       <c r="I7">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J7">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>20.963642</v>
       </c>
       <c r="O7">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P7">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q7">
         <v>35.48443473239777</v>
@@ -889,10 +889,10 @@
         <v>319.35991259158</v>
       </c>
       <c r="S7">
-        <v>0.1445196512707695</v>
+        <v>0.1779280268821967</v>
       </c>
       <c r="T7">
-        <v>0.1912436316771478</v>
+        <v>0.2576766336874337</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>15.23399</v>
       </c>
       <c r="I8">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J8">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N8">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O8">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P8">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q8">
-        <v>15.75298411031833</v>
+        <v>14.88755637240833</v>
       </c>
       <c r="R8">
-        <v>94.51790466190999</v>
+        <v>89.32533823444999</v>
       </c>
       <c r="S8">
-        <v>0.06415815236359389</v>
+        <v>0.07465001346129925</v>
       </c>
       <c r="T8">
-        <v>0.05660055202098858</v>
+        <v>0.07207245352888207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>15.23399</v>
       </c>
       <c r="I9">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J9">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N9">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O9">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P9">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q9">
-        <v>1.857416079408889</v>
+        <v>0.03115858754666666</v>
       </c>
       <c r="R9">
-        <v>16.71674471468</v>
+        <v>0.28042728792</v>
       </c>
       <c r="S9">
-        <v>0.007564813307165621</v>
+        <v>0.0001562371232464033</v>
       </c>
       <c r="T9">
-        <v>0.0100105581289524</v>
+        <v>0.0002262637128089804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H10">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I10">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J10">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N10">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O10">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P10">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q10">
-        <v>0.051416112384</v>
+        <v>0.046740518114</v>
       </c>
       <c r="R10">
-        <v>0.308496674304</v>
+        <v>0.280443108684</v>
       </c>
       <c r="S10">
-        <v>0.0002094055798682373</v>
+        <v>0.000234368906428783</v>
       </c>
       <c r="T10">
-        <v>0.0001847383532750087</v>
+        <v>0.0002262764778463228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H11">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I11">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J11">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>20.963642</v>
       </c>
       <c r="O11">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P11">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q11">
-        <v>1.848825515264</v>
+        <v>1.004773385298667</v>
       </c>
       <c r="R11">
-        <v>16.639429637376</v>
+        <v>9.042960467687999</v>
       </c>
       <c r="S11">
-        <v>0.007529825985434242</v>
+        <v>0.005038190611127608</v>
       </c>
       <c r="T11">
-        <v>0.009964259217961888</v>
+        <v>0.007296343467072392</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H12">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I12">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J12">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N12">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O12">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P12">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q12">
-        <v>0.8207688577919999</v>
+        <v>0.42155442317</v>
       </c>
       <c r="R12">
-        <v>4.924613146752</v>
+        <v>2.52932653902</v>
       </c>
       <c r="S12">
-        <v>0.003342796073730562</v>
+        <v>0.002113781642676665</v>
       </c>
       <c r="T12">
-        <v>0.0029490266801091</v>
+        <v>0.002040795736641069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,46 +1225,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H13">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I13">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J13">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N13">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O13">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P13">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q13">
-        <v>0.096775903744</v>
+        <v>0.000882283168</v>
       </c>
       <c r="R13">
-        <v>0.870983133696</v>
+        <v>0.007940548512</v>
       </c>
       <c r="S13">
-        <v>0.0003941452066510451</v>
+        <v>4.423993348562097E-06</v>
       </c>
       <c r="T13">
-        <v>0.0005215744714665779</v>
+        <v>6.406858624177449E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H14">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I14">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J14">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N14">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O14">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P14">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q14">
-        <v>0.43997606268</v>
+        <v>0.9294362169012501</v>
       </c>
       <c r="R14">
-        <v>1.75990425072</v>
+        <v>3.717744867605</v>
       </c>
       <c r="S14">
-        <v>0.001791917713372667</v>
+        <v>0.004660430789816279</v>
       </c>
       <c r="T14">
-        <v>0.00105389082048683</v>
+        <v>0.002999675114573061</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H15">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I15">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J15">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.963642</v>
       </c>
       <c r="O15">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P15">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q15">
-        <v>15.82070158694667</v>
+        <v>19.97994056885167</v>
       </c>
       <c r="R15">
-        <v>94.92420952168</v>
+        <v>119.87964341311</v>
       </c>
       <c r="S15">
-        <v>0.06443394951750284</v>
+        <v>0.100184529624015</v>
       </c>
       <c r="T15">
-        <v>0.05684386125889491</v>
+        <v>0.09672529877550622</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H16">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I16">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J16">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N16">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O16">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P16">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q16">
-        <v>7.02345303209</v>
+        <v>8.382618851881251</v>
       </c>
       <c r="R16">
-        <v>28.09381212836</v>
+        <v>33.530475407525</v>
       </c>
       <c r="S16">
-        <v>0.02860485141073819</v>
+        <v>0.04203259383075288</v>
       </c>
       <c r="T16">
-        <v>0.01682353497495516</v>
+        <v>0.02705417833702814</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H17">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I17">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J17">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N17">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O17">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P17">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q17">
-        <v>0.8281271982133334</v>
+        <v>0.01754421994</v>
       </c>
       <c r="R17">
-        <v>4.96876318928</v>
+        <v>0.10526531964</v>
       </c>
       <c r="S17">
-        <v>0.003372764841716932</v>
+        <v>8.797120373067179E-05</v>
       </c>
       <c r="T17">
-        <v>0.002975465234664171</v>
+        <v>8.493368184113803E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H18">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="I18">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J18">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N18">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O18">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P18">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q18">
-        <v>1.246438648266</v>
+        <v>0.2593880744731666</v>
       </c>
       <c r="R18">
-        <v>7.478631889596001</v>
+        <v>1.556328446839</v>
       </c>
       <c r="S18">
-        <v>0.005076447747759841</v>
+        <v>0.001300638114594088</v>
       </c>
       <c r="T18">
-        <v>0.004478460402047901</v>
+        <v>0.001255728910492064</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H19">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="I19">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J19">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>20.963642</v>
       </c>
       <c r="O19">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P19">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q19">
-        <v>44.81956082005267</v>
+        <v>5.576023634544221</v>
       </c>
       <c r="R19">
-        <v>403.3760473804741</v>
+        <v>50.18421271089799</v>
       </c>
       <c r="S19">
-        <v>0.1825393964613219</v>
+        <v>0.02795960794148199</v>
       </c>
       <c r="T19">
-        <v>0.2415553649379632</v>
+        <v>0.04049130302755241</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H20">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="I20">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J20">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N20">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O20">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P20">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q20">
-        <v>19.8972263403455</v>
+        <v>2.339430424049166</v>
       </c>
       <c r="R20">
-        <v>119.383358042073</v>
+        <v>14.036582544295</v>
       </c>
       <c r="S20">
-        <v>0.08103666392455999</v>
+        <v>0.0117305021911257</v>
       </c>
       <c r="T20">
-        <v>0.07149083542923425</v>
+        <v>0.0113254644552564</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.413899000000001</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H21">
-        <v>19.241697</v>
+        <v>2.393869</v>
       </c>
       <c r="I21">
-        <v>0.2782074471560547</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J21">
-        <v>0.3301687629590321</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N21">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O21">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P21">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q21">
-        <v>2.346058872489333</v>
+        <v>0.004896260061333332</v>
       </c>
       <c r="R21">
-        <v>21.114529852404</v>
+        <v>0.044066340552</v>
       </c>
       <c r="S21">
-        <v>0.009554939022412962</v>
+        <v>2.455109961269137E-05</v>
       </c>
       <c r="T21">
-        <v>0.01264410218978673</v>
+        <v>3.555507702961083E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H22">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="I22">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J22">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.194334</v>
+        <v>0.3250655</v>
       </c>
       <c r="N22">
-        <v>0.388668</v>
+        <v>0.650131</v>
       </c>
       <c r="O22">
-        <v>0.01824698727389678</v>
+        <v>0.03171104771407953</v>
       </c>
       <c r="P22">
-        <v>0.01356415537893752</v>
+        <v>0.02364479350543662</v>
       </c>
       <c r="Q22">
-        <v>0.080288314764</v>
+        <v>0.04730461511166667</v>
       </c>
       <c r="R22">
-        <v>0.481729888584</v>
+        <v>0.28382769067</v>
       </c>
       <c r="S22">
-        <v>0.0003269951836154556</v>
+        <v>0.0002371974329791401</v>
       </c>
       <c r="T22">
-        <v>0.0002884763232574261</v>
+        <v>0.0002290073393546266</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H23">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="I23">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J23">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>20.963642</v>
       </c>
       <c r="O23">
-        <v>0.6561269237301552</v>
+        <v>0.6816872822276142</v>
       </c>
       <c r="P23">
-        <v>0.7316118059537201</v>
+        <v>0.762432473166021</v>
       </c>
       <c r="Q23">
-        <v>2.887014945910666</v>
+        <v>1.016899687548889</v>
       </c>
       <c r="R23">
-        <v>25.983134513196</v>
+        <v>9.152097187940001</v>
       </c>
       <c r="S23">
-        <v>0.01175812426893677</v>
+        <v>0.005098994990541585</v>
       </c>
       <c r="T23">
-        <v>0.01555958907408111</v>
+        <v>0.007384400801689048</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H24">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="I24">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J24">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.1022045</v>
+        <v>2.9317775</v>
       </c>
       <c r="N24">
-        <v>6.204409</v>
+        <v>5.863555</v>
       </c>
       <c r="O24">
-        <v>0.2912814331641674</v>
+        <v>0.2860030861151516</v>
       </c>
       <c r="P24">
-        <v>0.2165281621087364</v>
+        <v>0.2132532477035712</v>
       </c>
       <c r="Q24">
-        <v>1.281663380357</v>
+        <v>0.4266420343916666</v>
       </c>
       <c r="R24">
-        <v>7.689980282142001</v>
+        <v>2.55985220635</v>
       </c>
       <c r="S24">
-        <v>0.005219909692026061</v>
+        <v>0.002139292225923702</v>
       </c>
       <c r="T24">
-        <v>0.004605023043588059</v>
+        <v>0.00206542547534192</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.413146</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H25">
-        <v>1.239438</v>
+        <v>0.43657</v>
       </c>
       <c r="I25">
-        <v>0.0179205026400845</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J25">
-        <v>0.02126754782722214</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.3657773333333333</v>
+        <v>0.006136</v>
       </c>
       <c r="N25">
-        <v>1.097332</v>
+        <v>0.018408</v>
       </c>
       <c r="O25">
-        <v>0.03434465583178051</v>
+        <v>0.0005985839431548165</v>
       </c>
       <c r="P25">
-        <v>0.03829587655860597</v>
+        <v>0.0006694856249710864</v>
       </c>
       <c r="Q25">
-        <v>0.1511194421573333</v>
+        <v>0.0008929311733333334</v>
       </c>
       <c r="R25">
-        <v>1.360074979416</v>
+        <v>0.00803638056</v>
       </c>
       <c r="S25">
-        <v>0.0006154734955062162</v>
+        <v>4.477385169327424E-06</v>
       </c>
       <c r="T25">
-        <v>0.0008144593862955475</v>
+        <v>6.484181038652158E-06</v>
       </c>
     </row>
   </sheetData>
